--- a/Jin_Andry_WithinSubject.xlsx
+++ b/Jin_Andry_WithinSubject.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1055,606 +1055,6 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P08</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,7 +1120,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1135,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1150,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1165,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1195,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1210,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1225,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1240,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1270,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1900,7 +1300,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1315,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1330,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1345,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1360,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1375,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1390,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2170,7 +1570,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2185,7 +1585,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2200,7 +1600,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2215,7 +1615,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2230,7 +1630,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2291,606 +1691,6 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P07</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2905,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,7 +1741,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2971,7 +1771,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3016,7 +1816,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3031,7 +1831,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3061,7 +1861,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3076,7 +1876,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3106,7 +1906,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3136,7 +1936,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3151,7 +1951,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +1966,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3181,7 +1981,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3196,7 +1996,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3211,7 +2011,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3226,7 +2026,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3286,7 +2086,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3316,7 +2116,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3331,7 +2131,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3346,7 +2146,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3376,7 +2176,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3391,7 +2191,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3406,7 +2206,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3421,7 +2221,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3496,7 +2296,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3525,606 +2325,6 @@
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P04</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4141,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4177,7 +2377,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4192,7 +2392,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4207,7 +2407,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4222,7 +2422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4282,7 +2482,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4312,7 +2512,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4327,7 +2527,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4357,7 +2557,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4372,7 +2572,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4387,7 +2587,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4402,7 +2602,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4417,7 +2617,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4432,7 +2632,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4462,7 +2662,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4477,7 +2677,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4492,7 +2692,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4507,7 +2707,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4522,7 +2722,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4537,7 +2737,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4567,7 +2767,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4597,7 +2797,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4717,7 +2917,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4761,606 +2961,6 @@
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P01</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5377,7 +2977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5413,7 +3013,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5428,7 +3028,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5443,7 +3043,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5458,7 +3058,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5473,7 +3073,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5488,7 +3088,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5503,7 +3103,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5518,7 +3118,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5533,7 +3133,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5548,7 +3148,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5563,7 +3163,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5623,7 +3223,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5758,7 +3358,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5773,7 +3373,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5788,7 +3388,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5803,7 +3403,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5818,7 +3418,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5833,7 +3433,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5848,7 +3448,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5997,606 +3597,6 @@
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P02</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6613,7 +3613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6664,7 +3664,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6754,7 +3754,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6799,7 +3799,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6814,7 +3814,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6829,7 +3829,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6859,7 +3859,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6874,7 +3874,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6889,7 +3889,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6904,7 +3904,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6919,7 +3919,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6934,7 +3934,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6949,7 +3949,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6964,7 +3964,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6979,7 +3979,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6994,7 +3994,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7009,7 +4009,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7024,7 +4024,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7054,7 +4054,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7069,7 +4069,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7084,7 +4084,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7129,7 +4129,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7233,606 +4233,6 @@
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P03</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7849,7 +4249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7885,7 +4285,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7900,7 +4300,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7915,7 +4315,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7930,7 +4330,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7945,7 +4345,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7960,7 +4360,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7975,7 +4375,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8005,7 +4405,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8020,7 +4420,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8035,7 +4435,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8050,7 +4450,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8065,7 +4465,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8080,7 +4480,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8155,7 +4555,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8170,7 +4570,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8185,7 +4585,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8290,7 +4690,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8320,7 +4720,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8380,7 +4780,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8425,7 +4825,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8440,7 +4840,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8455,7 +4855,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8470,607 +4870,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P05</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9085,7 +4885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9136,7 +4936,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9181,7 +4981,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9241,7 +5041,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9346,7 +5146,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9421,7 +5221,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9436,7 +5236,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9466,7 +5266,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9541,7 +5341,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9556,7 +5356,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9571,7 +5371,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9586,7 +5386,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9616,7 +5416,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9631,7 +5431,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9646,7 +5446,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9661,7 +5461,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9676,7 +5476,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9691,7 +5491,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9705,606 +5505,6 @@
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>51</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>52</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>55</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>56</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>57</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>58</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>59</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>61</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>62</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>63</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>69</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>71</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>72</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>75</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>77</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>78</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>79</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>P06</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>80</v>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>2</t>
         </is>
